--- a/web/test/userV1/testdata/user_test.xlsx
+++ b/web/test/userV1/testdata/user_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13520" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="userCreate" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>eq</t>
   </si>
   <si>
-    <t>{"code":51,"message":"用户名不能为空","data":null}</t>
+    <t>{"code":51,"message":"用户名不能为空","data":{}}</t>
   </si>
   <si>
     <t>所有参数为空</t>
@@ -63,7 +63,7 @@
     <t>case2</t>
   </si>
   <si>
-    <t>{"code":51,"message":"密码不能为空","data":null}</t>
+    <t>{"code":51,"message":"密码不能为空","data":{}}</t>
   </si>
   <si>
     <t>test</t>
@@ -84,13 +84,13 @@
     <t>只用账号</t>
   </si>
   <si>
-    <t>{"code":0,"message":"","data":{"token":"test"}}</t>
+    <t>{"code":0,"message":"success","data":{"token":"test"}}</t>
   </si>
   <si>
     <t>case4</t>
   </si>
   <si>
-    <t>{"code":2,"message":"账号或密码错误","data":{"token":""}}</t>
+    <t>{"code":300,"message":"账号或密码错误","data":{"token":""}}</t>
   </si>
   <si>
     <t>valid</t>
@@ -108,13 +108,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>{"code":51,"message":"用户ID不能为空","data":null}</t>
-  </si>
-  <si>
-    <t>{"code":0,"message":"","data":{"id":1,"nickname":"test"}}</t>
-  </si>
-  <si>
-    <t>{"code":-1,"message":"用户不存在","data":{}}</t>
+    <t>{"code":51,"message":"用户ID不能为空","data":{}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"message":"success","data":{"id":1,"nickname":"test"}}</t>
+  </si>
+  <si>
+    <t>{"code":300,"message":"用户不存在","data":{}}</t>
   </si>
   <si>
     <t>不存在id</t>
@@ -127,8 +127,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -141,6 +141,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,8 +176,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,30 +215,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,39 +246,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,14 +265,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,17 +276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +292,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -304,175 +316,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,24 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -528,17 +510,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,150 +568,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1272,8 +1272,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1562,8 +1562,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>

--- a/web/test/userV1/testdata/user_test.xlsx
+++ b/web/test/userV1/testdata/user_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13520"/>
+    <workbookView windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="userCreate" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>case3</t>
   </si>
   <si>
-    <t>{"code":0,"message":"","data":{}}</t>
+    <t xml:space="preserve">{"code":0,"message":"success","data":{}} </t>
   </si>
   <si>
     <t>正常</t>
@@ -125,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -146,17 +146,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,14 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -185,7 +171,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +208,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -217,59 +270,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -292,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,21 +491,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +528,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,13 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,145 +588,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>

--- a/web/test/userV1/testdata/user_test.xlsx
+++ b/web/test/userV1/testdata/user_test.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16520"/>
+    <workbookView windowWidth="28800" windowHeight="13520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="userCreate" sheetId="1" r:id="rId1"/>
     <sheet name="userLogin" sheetId="2" r:id="rId2"/>
     <sheet name="userDetail" sheetId="3" r:id="rId3"/>
+    <sheet name="userLogout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
   <si>
     <t>caseName</t>
   </si>
@@ -75,19 +76,28 @@
     <t>case3</t>
   </si>
   <si>
-    <t xml:space="preserve">{"code":0,"message":"success","data":{}} </t>
+    <t>{"code":0,"message":"success","data":{}}</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
   <si>
     <t>正常</t>
   </si>
   <si>
+    <t>case4</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
     <t>只用账号</t>
   </si>
   <si>
-    <t>{"code":0,"message":"success","data":{"token":"test"}}</t>
-  </si>
-  <si>
-    <t>case4</t>
+    <t>code</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>{"code":300,"message":"账号或密码错误","data":{"token":""}}</t>
@@ -105,19 +115,19 @@
     <t>错误账号</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>{"code":51,"message":"用户ID不能为空","data":{}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"message":"success","data":{"id":1,"nickname":"test"}}</t>
-  </si>
-  <si>
-    <t>{"code":300,"message":"用户不存在","data":{}}</t>
-  </si>
-  <si>
-    <t>不存在id</t>
+    <t>login</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>{"code":61,"message":"登陆失败","data":{}}</t>
+  </si>
+  <si>
+    <t>不登录</t>
+  </si>
+  <si>
+    <t>{"code":0,"message":"success","data":{"id":1,"nickname":"test1"}}</t>
   </si>
 </sst>
 </file>
@@ -735,6 +745,9 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,13 +1283,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
     <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
@@ -1371,13 +1384,39 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1431,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1467,10 +1506,10 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
@@ -1484,24 +1523,24 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1513,21 +1552,21 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1539,16 +1578,16 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1560,22 +1599,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
     <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
     <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
     <col min="5" max="5" width="56.8461538461538" customWidth="1"/>
-    <col min="7" max="7" width="56.3846153846154" customWidth="1"/>
+    <col min="6" max="6" width="6.15384615384615" customWidth="1"/>
+    <col min="8" max="8" width="9.84615384615385" customWidth="1"/>
+    <col min="9" max="9" width="56.3846153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1592,13 +1633,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1612,13 +1659,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1632,36 +1682,126 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" customFormat="1" spans="1:7">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
+    <col min="5" max="5" width="56.8461538461538" customWidth="1"/>
+    <col min="6" max="6" width="6.15384615384615" customWidth="1"/>
+    <col min="8" max="8" width="9.84615384615385" customWidth="1"/>
+    <col min="9" max="9" width="56.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
